--- a/regression_estim.xlsx
+++ b/regression_estim.xlsx
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,20 +103,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,6 +380,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Years" dataDxfId="4"/>
+    <tableColumn id="2" name="Nbre_commune" dataDxfId="3"/>
+    <tableColumn id="3" name="Nbre_menage_vul" dataDxfId="2"/>
+    <tableColumn id="4" name="Nbre_pers_vul" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,77 +658,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>2016</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2267</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>19126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>2017</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>B2+18</f>
         <v>23</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>C2+4733</f>
         <v>7000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <f>D2+38468</f>
         <v>57594</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>2018</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f>B3+38</f>
         <v>61</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>C3+10410</f>
         <v>17410</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <f>D3+81017</f>
+        <v>138611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="11">
+        <f>B4+54</f>
+        <v>115</v>
+      </c>
+      <c r="C5" s="11">
+        <f>C4+0</f>
+        <v>17410</v>
+      </c>
+      <c r="D5" s="12">
+        <f>D4+0</f>
         <v>138611</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/regression_estim.xlsx
+++ b/regression_estim.xlsx
@@ -223,6 +223,120 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -255,120 +369,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -383,13 +383,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Years" dataDxfId="4"/>
-    <tableColumn id="2" name="Nbre_commune" dataDxfId="3"/>
-    <tableColumn id="3" name="Nbre_menage_vul" dataDxfId="2"/>
-    <tableColumn id="4" name="Nbre_pers_vul" dataDxfId="1"/>
+    <tableColumn id="1" name="Years" dataDxfId="3"/>
+    <tableColumn id="2" name="Nbre_commune" dataDxfId="2"/>
+    <tableColumn id="3" name="Nbre_menage_vul" dataDxfId="1"/>
+    <tableColumn id="4" name="Nbre_pers_vul" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,7 +661,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,8 +721,8 @@
         <v>2018</v>
       </c>
       <c r="B4" s="1">
-        <f>B3+38</f>
-        <v>61</v>
+        <f>B3+40</f>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <f>C3+10410</f>
@@ -738,8 +738,8 @@
         <v>2019</v>
       </c>
       <c r="B5" s="11">
-        <f>B4+54</f>
-        <v>115</v>
+        <f>B4+55</f>
+        <v>118</v>
       </c>
       <c r="C5" s="11">
         <f>C4+0</f>
